--- a/schedule/data/matchlist.xlsx
+++ b/schedule/data/matchlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yfwu AT lab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ccmesoccer.github.io\schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CA760-B90A-4D1D-A0C0-E5029841474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4D87DE-3A64-46CB-B8F2-F10D1CD0DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.3.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19北大杯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.10.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张旭升*2，李宇宸*2，许铃鸿*4，张腾远*2，凌烨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,6 +661,14 @@
   </si>
   <si>
     <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -1201,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>45</v>
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -1224,7 +1224,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -1293,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
@@ -1316,7 +1316,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -1339,22 +1339,22 @@
         <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,45 +1362,45 @@
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,22 +1408,22 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1431,33 +1431,33 @@
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
@@ -1469,18 +1469,18 @@
         <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>49</v>
@@ -1497,102 +1497,102 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
@@ -1601,21 +1601,21 @@
         <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>43</v>
@@ -1627,53 +1627,53 @@
         <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>21</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>47</v>
@@ -1696,53 +1696,53 @@
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>21</v>
@@ -1750,36 +1750,36 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>46</v>
@@ -1788,7 +1788,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -1797,6 +1797,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>